--- a/target/test-classes/Excel/CloudPos.xlsx
+++ b/target/test-classes/Excel/CloudPos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B77E6C6-0F88-493C-97D5-C7670207B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349C6A7-2422-4C4B-AF6A-909B97BEB21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">QPayWithSendlinkCustomFee!$A$1:$AF$2</definedName>
-    <definedName name="Fee_TypeCu">'Merchant(P)CustomFee_QPayNow'!$I$1</definedName>
+    <definedName name="Fee_TypeCu">'Merchant(P)CustomFee_QPayNow'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,31 +38,7 @@
     <author>MY PC</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C287E213-EF99-4493-BBF1-4FD5FE686219}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MY PC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-CustomFee==1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1F42DF6D-FE2B-4B26-ACC3-5F7841A9E0C0}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{34D37AEE-B642-465C-B5C7-5D6F2157A90A}">
       <text>
         <r>
           <rPr>
@@ -159,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="112">
   <si>
     <t>Payment Type</t>
   </si>
@@ -293,9 +269,6 @@
     <t>Capped At</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -335,12 +308,6 @@
     <t>warren@cloud-mail.top</t>
   </si>
   <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
     <t>1.00</t>
   </si>
   <si>
@@ -350,15 +317,9 @@
     <t>364222214920</t>
   </si>
   <si>
-    <t xml:space="preserve">CustomFee  </t>
-  </si>
-  <si>
     <t>DisplayLabel</t>
   </si>
   <si>
-    <t>CustomFe</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -371,9 +332,6 @@
     <t>SurchargeFee</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>4.99</t>
   </si>
   <si>
@@ -510,6 +468,9 @@
   </si>
   <si>
     <t>customFeeTxWithQPaySendLink_MerchantPrimaryLogin</t>
+  </si>
+  <si>
+    <t>CustomFeeTPN</t>
   </si>
 </sst>
 </file>
@@ -630,13 +591,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1128,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F299F462-4417-4814-8397-3224DFC664BA}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1157,99 +1117,95 @@
     <col min="25" max="25" width="25.90625" customWidth="1"/>
     <col min="26" max="26" width="25.453125" style="4" customWidth="1"/>
     <col min="27" max="27" width="25.6328125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="25.54296875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="18.81640625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="19.6328125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="16.90625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="22.26953125" style="4" customWidth="1"/>
-    <col min="33" max="33" width="12.1796875" style="4" customWidth="1"/>
-    <col min="34" max="34" width="10.36328125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="22.26953125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="10.36328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1257,13 +1213,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>62</v>
+      <c r="E2" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -1272,251 +1228,76 @@
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="R2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="10"/>
+      <c r="U2" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="V2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>58</v>
+      <c r="Y2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00B2B4C0-0FA2-4E1F-A3F0-863BB0255B74}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{80F2FFD5-C172-48E2-A8E5-B906E3DC4A40}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{BDAA2F1C-91B9-4CB2-825B-5A1A104AA8DB}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{AE4EB77E-F74C-42E1-B774-D9F9FF148C10}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{34486236-A2D7-4C7E-83BC-A8B20E68DFD1}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{A77F3FA8-3216-4215-A010-65A446FCA107}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{2CB7EC15-EB72-4478-8CEA-13FDB26B459B}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{964242FD-C945-4405-A10C-F1FB6D4FDA07}"/>
-    <hyperlink ref="A4" r:id="rId9" xr:uid="{D3521FBA-733C-4481-A0C8-0BD374752C0C}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{263333A5-C8EF-4BF4-AD99-F882E18B3C59}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{584E7BC3-77EA-4D15-9920-30EC5D2221BD}"/>
-    <hyperlink ref="D4" r:id="rId12" xr:uid="{AEDEAE4B-2521-4312-BA57-5EB6D6015CEC}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{749890B4-B2D8-4C33-AEE3-CCB06273E20E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{48EE313B-88FB-474C-AAED-A521898D7160}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{D1F26AC7-6E35-455F-8E4C-E4A06CA8792E}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{047545CD-E7B6-4B5F-8054-84DDF705A232}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1525,7 +1306,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,86 +1334,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -1643,13 +1424,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>62</v>
+      <c r="E2" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -1658,62 +1439,62 @@
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="R2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="10"/>
+      <c r="U2" s="9"/>
       <c r="V2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>96</v>
+      <c r="Y2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1732,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829EA237-5DDE-46DE-8061-AEC244A004A5}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1768,118 +1549,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="O1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="8" t="s">
+      <c r="X1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>80</v>
+      <c r="AE1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>88</v>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -1888,75 +1669,75 @@
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="S2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="10" t="s">
+      <c r="V2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>86</v>
+      <c r="Z2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="AF2" s="2" t="s">
@@ -1980,9 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E6626-6C69-4039-AA2E-5FEBF414F292}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1990,284 +1769,284 @@
     <col min="2" max="2" width="52.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Excel/CloudPos.xlsx
+++ b/target/test-classes/Excel/CloudPos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349C6A7-2422-4C4B-AF6A-909B97BEB21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907734CA-A0F7-46E2-838F-F9D0D0F4264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
   </bookViews>
@@ -464,13 +464,13 @@
     <t>surchargeFeeTxWithQPayNow_MerchantPrimaryLogin</t>
   </si>
   <si>
-    <t>CustomFeeTxWithQPayNow_MerchantPrimaryLogin</t>
-  </si>
-  <si>
     <t>customFeeTxWithQPaySendLink_MerchantPrimaryLogin</t>
   </si>
   <si>
     <t>CustomFeeTPN</t>
+  </si>
+  <si>
+    <t>customFeeTxWithQPayNow_MerchantPrimaryLogin</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F299F462-4417-4814-8397-3224DFC664BA}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>39</v>
@@ -1231,7 +1231,7 @@
         <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>58</v>
@@ -1243,7 +1243,7 @@
         <v>61</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>44</v>
@@ -1513,9 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829EA237-5DDE-46DE-8061-AEC244A004A5}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1761,7 +1759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E6626-6C69-4039-AA2E-5FEBF414F292}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>88</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>88</v>

--- a/target/test-classes/Excel/CloudPos.xlsx
+++ b/target/test-classes/Excel/CloudPos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535DA789-006E-4FEE-A579-001870413BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D726A8-90C3-4086-9522-5A3CA661E241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
   </bookViews>
@@ -1975,7 +1975,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2258,7 +2258,7 @@
         <v>88</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>89</v>

--- a/target/test-classes/Excel/CloudPos.xlsx
+++ b/target/test-classes/Excel/CloudPos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DenovoPortal Automation Monitoring System\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A654F0E9-B086-4339-BC9B-EABEBACD625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17179F97-3287-4B80-ADA8-0DCBA3274362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Quick Sale" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/target/test-classes/Excel/CloudPos.xlsx
+++ b/target/test-classes/Excel/CloudPos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DenovoPortal Automation Monitoring System\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17179F97-3287-4B80-ADA8-0DCBA3274362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB28086A-DFA4-4C8A-833B-00399E39A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Quick Sale" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>Payment Type</t>
   </si>
@@ -285,12 +285,6 @@
     <t>161423363710</t>
   </si>
   <si>
-    <t>systemLoginDashboard</t>
-  </si>
-  <si>
-    <t>TransactionPageLoadingTest</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -300,7 +294,16 @@
     <t>yes</t>
   </si>
   <si>
-    <t>validateIsoLoginDashboardIsLoaded</t>
+    <t>validateDashboardOnISOLogin</t>
+  </si>
+  <si>
+    <t>validateTransactionPageOnSystemLogin</t>
+  </si>
+  <si>
+    <t>validateDashboardOnSystemLogin</t>
+  </si>
+  <si>
+    <t>validateTransactionPageOnIsoLogin</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,7 +967,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>69</v>
@@ -1050,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -1136,7 +1139,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -1228,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E6626-6C69-4039-AA2E-5FEBF414F292}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>65</v>
@@ -1270,13 +1273,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>66</v>
@@ -1284,15 +1287,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>66</v>
       </c>
     </row>

--- a/target/test-classes/Excel/CloudPos.xlsx
+++ b/target/test-classes/Excel/CloudPos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DenovoPortal Automation Monitoring System\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB28086A-DFA4-4C8A-833B-00399E39A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A275DFCD-C278-44B3-B832-5B4B724B0CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{411B86E3-5BC8-4162-9D5B-60D77C5E31A0}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
